--- a/Data/PCR/exp10_autothres.xlsx
+++ b/Data/PCR/exp10_autothres.xlsx
@@ -1873,7 +1873,7 @@
                   <c:v>26.771111111111111</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.140555555555554</c:v>
+                  <c:v>29.178333333333331</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>28.974444444444444</c:v>
@@ -1936,7 +1936,7 @@
                   <c:v>27.125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.402222222222225</c:v>
+                  <c:v>26.758888888888887</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1952,11 +1952,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="211863696"/>
-        <c:axId val="211862576"/>
+        <c:axId val="5406992"/>
+        <c:axId val="5407552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="211863696"/>
+        <c:axId val="5406992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1999,7 +1999,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211862576"/>
+        <c:crossAx val="5407552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2007,7 +2007,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="211862576"/>
+        <c:axId val="5407552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2058,7 +2058,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211863696"/>
+        <c:crossAx val="5406992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2220,13 +2220,13 @@
                   <c:v>-6.5788888888888906</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1055555555555578</c:v>
+                  <c:v>-0.93222222222221873</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>-5.2063888888888883</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.548888888888893</c:v>
+                  <c:v>-1.094444444444445</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2242,11 +2242,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="242725776"/>
-        <c:axId val="242721856"/>
+        <c:axId val="5410352"/>
+        <c:axId val="5410912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="242725776"/>
+        <c:axId val="5410352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2288,7 +2288,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242721856"/>
+        <c:crossAx val="5410912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2296,7 +2296,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="242721856"/>
+        <c:axId val="5410912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2347,7 +2347,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242725776"/>
+        <c:crossAx val="5410352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3516,16 +3516,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6840,8 +6840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J41" activeCellId="5" sqref="J6 J13 J18 J25 J34 J41"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O52" sqref="O52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7036,7 +7036,7 @@
       </c>
       <c r="P6">
         <f>H25</f>
-        <v>27.140555555555554</v>
+        <v>29.178333333333331</v>
       </c>
       <c r="Q6">
         <f>H39</f>
@@ -7074,7 +7074,7 @@
       </c>
       <c r="Q7">
         <f>H42</f>
-        <v>29.402222222222225</v>
+        <v>26.758888888888887</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -7445,24 +7445,21 @@
       <c r="D25">
         <v>19.28</v>
       </c>
-      <c r="E25">
-        <v>7.27</v>
-      </c>
       <c r="F25" s="1">
         <f t="shared" si="2"/>
-        <v>19.496666666666666</v>
+        <v>25.61</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" si="3"/>
-        <v>12.336427089450718</v>
+        <v>8.9519718498217031</v>
       </c>
       <c r="H25">
         <f>AVERAGE(F24:F26)</f>
-        <v>27.140555555555554</v>
+        <v>29.178333333333331</v>
       </c>
       <c r="J25">
         <f>-((H25-H28)-(H53-H56))</f>
-        <v>1.1055555555555578</v>
+        <v>-0.93222222222221873</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -7513,7 +7510,7 @@
       </c>
       <c r="J27">
         <f>_xlfn.T.TEST(C24:E26,C27:E29,2,3)</f>
-        <v>0.94476597777357041</v>
+        <v>0.55998428730893246</v>
       </c>
       <c r="K27" t="s">
         <v>336</v>
@@ -7803,20 +7800,17 @@
       <c r="C41">
         <v>32.19</v>
       </c>
-      <c r="D41">
-        <v>36.299999999999997</v>
-      </c>
       <c r="F41" s="1">
         <f t="shared" si="4"/>
-        <v>34.244999999999997</v>
-      </c>
-      <c r="G41" s="2">
+        <v>32.19</v>
+      </c>
+      <c r="G41" s="2" t="e">
         <f t="shared" si="5"/>
-        <v>2.9062088706767097</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J41">
         <f>-((H39-H42)-(H53-H56))</f>
-        <v>1.548888888888893</v>
+        <v>-1.094444444444445</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -7845,11 +7839,11 @@
       </c>
       <c r="H42">
         <f t="shared" ref="H42" si="7">AVERAGE(F41:F43)</f>
-        <v>29.402222222222225</v>
+        <v>26.758888888888887</v>
       </c>
       <c r="J42">
         <f>_xlfn.T.TEST(C38:E40,C41:E43,2,3)</f>
-        <v>0.63931311103255994</v>
+        <v>0.24707346935597305</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -7859,19 +7853,16 @@
       <c r="B43" t="s">
         <v>326</v>
       </c>
-      <c r="C43">
-        <v>35.770000000000003</v>
-      </c>
       <c r="D43">
         <v>24.02</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="4"/>
-        <v>29.895000000000003</v>
-      </c>
-      <c r="G43" s="2">
+        <v>24.02</v>
+      </c>
+      <c r="G43" s="2" t="e">
         <f t="shared" si="5"/>
-        <v>8.3085046789419206</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">

--- a/Data/PCR/exp10_autothres.xlsx
+++ b/Data/PCR/exp10_autothres.xlsx
@@ -9,18 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="8115" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="8115" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="exp10_autothres" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="AllData2" sheetId="4" r:id="rId3"/>
+    <sheet name="Alldata" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="358">
   <si>
     <t>Experiment: Exp10_200a_148a_30a_125a TRIP  Selected Filter: SYBR Green I / HRM Dye (465-510)</t>
   </si>
@@ -1046,6 +1048,54 @@
   </si>
   <si>
     <t>GFP cell</t>
+  </si>
+  <si>
+    <t>Int-ref</t>
+  </si>
+  <si>
+    <t>Exo</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>gfp</t>
+  </si>
+  <si>
+    <t>exo</t>
+  </si>
+  <si>
+    <t>cell</t>
+  </si>
+  <si>
+    <t>19a</t>
+  </si>
+  <si>
+    <t>10b</t>
+  </si>
+  <si>
+    <t>AVERAGE</t>
+  </si>
+  <si>
+    <t>avDD</t>
+  </si>
+  <si>
+    <t>indDDs</t>
+  </si>
+  <si>
+    <t>Comparing to AVERAGE 125a for that plate</t>
+  </si>
+  <si>
+    <t>Exo C1</t>
+  </si>
+  <si>
+    <t>Exo GFP</t>
+  </si>
+  <si>
+    <t>Cell c1</t>
+  </si>
+  <si>
+    <t>Cell GFP</t>
   </si>
 </sst>
 </file>
@@ -1369,7 +1419,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1502,6 +1552,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1547,10 +1626,23 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1952,11 +2044,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="5406992"/>
-        <c:axId val="5407552"/>
+        <c:axId val="35742800"/>
+        <c:axId val="35743360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="5406992"/>
+        <c:axId val="35742800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1999,7 +2091,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5407552"/>
+        <c:crossAx val="35743360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2007,7 +2099,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="5407552"/>
+        <c:axId val="35743360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2058,7 +2150,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5406992"/>
+        <c:crossAx val="35742800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2242,11 +2334,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="5410352"/>
-        <c:axId val="5410912"/>
+        <c:axId val="250655680"/>
+        <c:axId val="250656240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="5410352"/>
+        <c:axId val="250655680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2288,7 +2380,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5410912"/>
+        <c:crossAx val="250656240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2296,7 +2388,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="5410912"/>
+        <c:axId val="250656240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2347,7 +2439,324 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5410352"/>
+        <c:crossAx val="250655680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>(Alldata!$B$61:$C$61,Alldata!$E$61:$F$61,Alldata!$H$61:$I$61,Alldata!$K$61:$L$61,Alldata!$N$61:$O$61,Alldata!$Q$61:$R$61,Alldata!$T$61:$U$61)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-5.8569047619047625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.1542857142857139</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.5623809523809524</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.3780952380952376</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.5634999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.1761111111111107</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1400000000000015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.704</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.75750000000000117</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2144999999999984</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.92249999999999854</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.44500000000000117</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.4300000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="250659040"/>
+        <c:axId val="250659600"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="250659040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="250659600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="250659600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="250659040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2437,6 +2846,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3482,20 +3931,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3516,16 +4468,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3539,6 +4491,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6838,15 +7825,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O52" sqref="O52"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32:Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>327</v>
       </c>
@@ -6856,8 +7843,11 @@
       <c r="G1" s="2" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>320</v>
       </c>
@@ -6878,8 +7868,24 @@
         <f>STDEV(C2:E2)</f>
         <v>5.1477373670380668</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <f>F2-F45</f>
+        <v>0.99500000000000455</v>
+      </c>
+      <c r="S2">
+        <f>F2-H46</f>
+        <v>7.0000000000000284E-2</v>
+      </c>
+      <c r="T2">
+        <f>F5-H49</f>
+        <v>-5.9422222222222238</v>
+      </c>
+      <c r="V2">
+        <f>-(S2-T2)</f>
+        <v>-6.0122222222222241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>320</v>
       </c>
@@ -6914,6 +7920,10 @@
       <c r="K3" t="s">
         <v>335</v>
       </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L14" si="2">F3-F46</f>
+        <v>-4.6133333333333297</v>
+      </c>
       <c r="O3" t="s">
         <v>337</v>
       </c>
@@ -6923,8 +7933,28 @@
       <c r="Q3" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S3">
+        <f>F3-H46</f>
+        <v>-3.7833333333333314</v>
+      </c>
+      <c r="T3">
+        <f>F6-H49</f>
+        <v>-12.132222222222225</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V8" si="3">-(S3-T3)</f>
+        <v>-8.3488888888888937</v>
+      </c>
+      <c r="W3">
+        <f>AVERAGE(V2:V4)</f>
+        <v>-6.6561111111111151</v>
+      </c>
+      <c r="X3">
+        <f>STDEV(V2:V4)/SQRT(3)</f>
+        <v>0.85442548021145115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>320</v>
       </c>
@@ -6945,6 +7975,10 @@
         <f t="shared" si="1"/>
         <v>5.6639253173042077</v>
       </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>-0.89999999999999858</v>
+      </c>
       <c r="N4" t="s">
         <v>338</v>
       </c>
@@ -6960,8 +7994,20 @@
         <f>H32</f>
         <v>38.952500000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S4">
+        <f>F4-H46</f>
+        <v>-0.80499999999999972</v>
+      </c>
+      <c r="T4">
+        <f>F7-H49</f>
+        <v>-6.4122222222222263</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="3"/>
+        <v>-5.6072222222222265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>320</v>
       </c>
@@ -6979,6 +8025,10 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>-7.3066666666666684</v>
+      </c>
       <c r="N5" t="s">
         <v>339</v>
       </c>
@@ -6995,7 +8045,7 @@
         <v>28.638333333333335</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>320</v>
       </c>
@@ -7027,6 +8077,10 @@
         <f>-((H3-H6)-(H46-H49))</f>
         <v>-6.656111111111116</v>
       </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>-4.2749999999999986</v>
+      </c>
       <c r="N6" t="s">
         <v>340</v>
       </c>
@@ -7042,8 +8096,20 @@
         <f>H39</f>
         <v>28.974444444444444</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S6">
+        <f>F9-30.30167</f>
+        <v>3.5216633333333291</v>
+      </c>
+      <c r="T6">
+        <f>F12-29.18056</f>
+        <v>-7.7355599999999995</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="3"/>
+        <v>-11.257223333333329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>320</v>
       </c>
@@ -7061,6 +8127,10 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>-12.905000000000001</v>
+      </c>
       <c r="N7" t="s">
         <v>341</v>
       </c>
@@ -7076,15 +8146,47 @@
         <f>H42</f>
         <v>26.758888888888887</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S7">
+        <f t="shared" ref="S7:S8" si="4">F10-30.30167</f>
+        <v>-4.4750033333333334</v>
+      </c>
+      <c r="T7">
+        <f t="shared" ref="T7:T8" si="5">F13-29.18056</f>
+        <v>-14.28556</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="3"/>
+        <v>-9.8105566666666668</v>
+      </c>
+      <c r="W7">
+        <f>AVERAGE(V6:V8)</f>
+        <v>-5.0300011111111091</v>
+      </c>
+      <c r="X7">
+        <f>STDEV(V6:V8)/SQRT(3)</f>
+        <v>5.5197098297771294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>328</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S8">
+        <f t="shared" si="4"/>
+        <v>-9.6383366666666674</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="5"/>
+        <v>-3.6605600000000003</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="3"/>
+        <v>5.9777766666666672</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>320</v>
       </c>
@@ -7108,8 +8210,12 @@
         <f t="shared" si="1"/>
         <v>4.2408057410512834</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>-4.0266666666666637</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>320</v>
       </c>
@@ -7137,8 +8243,12 @@
         <f>AVERAGE(F9:F11)</f>
         <v>26.771111111111111</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <f>F10-F53</f>
+        <v>0.78666666666666529</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>320</v>
       </c>
@@ -7169,8 +8279,12 @@
       <c r="K11" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>-7.3516666666666666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>320</v>
       </c>
@@ -7191,8 +8305,12 @@
         <f>STDEV(C12:E12)</f>
         <v>11.292495295549157</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>-11.305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>320</v>
       </c>
@@ -7221,8 +8339,12 @@
         <f>-((H10-H13)-(H53-H56))</f>
         <v>-5.0299999999999976</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>-6.5016666666666652</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>320</v>
       </c>
@@ -7243,13 +8365,17 @@
         <f t="shared" si="1"/>
         <v>4.3982041789803255</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>-7.8749999999999964</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>321</v>
       </c>
@@ -7267,8 +8393,28 @@
         <f>STDEV(C17:E17)</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <f>F17-F45</f>
+        <v>2.8150000000000048</v>
+      </c>
+      <c r="N17">
+        <f>F17-38.24</f>
+        <v>1.8900000000000006</v>
+      </c>
+      <c r="O17">
+        <f>F20-33.1322</f>
+        <v>-3.542199999999994</v>
+      </c>
+      <c r="P17">
+        <f>F24-30.30167</f>
+        <v>8.2183299999999946</v>
+      </c>
+      <c r="Q17">
+        <f>F27-29.18056</f>
+        <v>-7.0005600000000037</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>321</v>
       </c>
@@ -7282,11 +8428,11 @@
         <v>33.92</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" ref="F18:F29" si="2">AVERAGE(C18:E18)</f>
+        <f t="shared" ref="F18:F29" si="6">AVERAGE(C18:E18)</f>
         <v>37.6</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" ref="G18:G29" si="3">STDEV(C18:E18)</f>
+        <f t="shared" ref="G18:G29" si="7">STDEV(C18:E18)</f>
         <v>5.2043059095329891</v>
       </c>
       <c r="H18">
@@ -7297,8 +8443,28 @@
         <f>-((H18-H21)-(H46-H49))</f>
         <v>-6.5788888888888906</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <f t="shared" ref="L18:L29" si="8">F18-F46</f>
+        <v>-1.4699999999999989</v>
+      </c>
+      <c r="N18">
+        <f t="shared" ref="N18:N19" si="9">F18-38.24</f>
+        <v>-0.64000000000000057</v>
+      </c>
+      <c r="O18">
+        <f>F21-33.1322</f>
+        <v>-8.6288666666666636</v>
+      </c>
+      <c r="P18">
+        <f t="shared" ref="P18:P19" si="10">F25-30.30167</f>
+        <v>-4.691670000000002</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" ref="Q18:Q19" si="11">F28-29.18056</f>
+        <v>-5.9905599999999986</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>321</v>
       </c>
@@ -7309,15 +8475,35 @@
         <v>38.47</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>38.47</v>
       </c>
       <c r="G19" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <f t="shared" si="8"/>
+        <v>0.13499999999999801</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="9"/>
+        <v>0.22999999999999687</v>
+      </c>
+      <c r="O19">
+        <f>F22-33.1322</f>
+        <v>7.2244666666666646</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="10"/>
+        <v>-6.8966700000000003</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="11"/>
+        <v>6.8244399999999956</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>321</v>
       </c>
@@ -7334,11 +8520,11 @@
         <v>26.57</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>29.590000000000003</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5.1444338852783051</v>
       </c>
       <c r="J20">
@@ -7348,8 +8534,20 @@
       <c r="K20" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <f t="shared" si="8"/>
+        <v>-4.9066666666666663</v>
+      </c>
+      <c r="N20">
+        <f>-(N17-O17)</f>
+        <v>-5.4321999999999946</v>
+      </c>
+      <c r="P20">
+        <f>-(P17-Q17)</f>
+        <v>-15.218889999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>321</v>
       </c>
@@ -7366,19 +8564,31 @@
         <v>25.16</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24.503333333333334</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.5901677060402564</v>
       </c>
       <c r="H21">
         <f>AVERAGE(F20:F21)</f>
         <v>27.046666666666667</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <f t="shared" si="8"/>
+        <v>-0.77166666666666472</v>
+      </c>
+      <c r="N21">
+        <f t="shared" ref="N21:N22" si="12">-(N18-O18)</f>
+        <v>-7.988866666666663</v>
+      </c>
+      <c r="P21">
+        <f t="shared" ref="P21:P22" si="13">-(P18-Q18)</f>
+        <v>-1.2988899999999965</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>321</v>
       </c>
@@ -7395,22 +8605,43 @@
         <v>36.24</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>40.356666666666662</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.5928029911662738</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <f t="shared" si="8"/>
+        <v>0.73166666666666202</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="12"/>
+        <v>6.9944666666666677</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="13"/>
+        <v>13.721109999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>328</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N23" s="9">
+        <f>AVERAGE(N20:N22)</f>
+        <v>-2.1421999999999968</v>
+      </c>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9">
+        <f t="shared" ref="O23:P23" si="14">AVERAGE(P20:P22)</f>
+        <v>-0.93222333333333296</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>321</v>
       </c>
@@ -7424,15 +8655,27 @@
         <v>35.6</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>38.519999999999996</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4.1295036021294349</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <f t="shared" si="8"/>
+        <v>0.67000000000000171</v>
+      </c>
+      <c r="N24">
+        <f>STDEV(N20:N22)/SQRT(3)</f>
+        <v>4.6275675555826812</v>
+      </c>
+      <c r="P24">
+        <f t="shared" ref="O24:P24" si="15">STDEV(P20:P22)/SQRT(3)</f>
+        <v>8.35626976852976</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>321</v>
       </c>
@@ -7446,11 +8689,11 @@
         <v>19.28</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>25.61</v>
       </c>
       <c r="G25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8.9519718498217031</v>
       </c>
       <c r="H25">
@@ -7461,8 +8704,12 @@
         <f>-((H25-H28)-(H53-H56))</f>
         <v>-0.93222222222221873</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25">
+        <f t="shared" si="8"/>
+        <v>0.56999999999999673</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>321</v>
       </c>
@@ -7476,15 +8723,19 @@
         <v>25.86</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>23.405000000000001</v>
       </c>
       <c r="G26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.4718942956259427</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <f t="shared" si="8"/>
+        <v>-4.6099999999999994</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>321</v>
       </c>
@@ -7501,11 +8752,11 @@
         <v>20.68</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>22.179999999999996</v>
       </c>
       <c r="G27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6.1781145991313622</v>
       </c>
       <c r="J27">
@@ -7515,8 +8766,12 @@
       <c r="K27" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <f t="shared" si="8"/>
+        <v>-10.570000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>321</v>
       </c>
@@ -7530,19 +8785,23 @@
         <v>24.42</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>23.19</v>
       </c>
       <c r="G28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.7394826817189075</v>
       </c>
       <c r="H28">
         <f>AVERAGE(F27:F29)</f>
         <v>27.125</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <f t="shared" si="8"/>
+        <v>1.7933333333333366</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>321</v>
       </c>
@@ -7556,22 +8815,26 @@
         <v>33.11</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>36.004999999999995</v>
       </c>
       <c r="G29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4.0941482630701094</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29">
+        <f t="shared" si="8"/>
+        <v>2.6099999999999994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>327</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>322</v>
       </c>
@@ -7581,7 +8844,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>322</v>
       </c>
@@ -7598,19 +8861,39 @@
         <v>34.78</v>
       </c>
       <c r="F32" s="1">
-        <f t="shared" ref="F32:F43" si="4">AVERAGE(C32:E32)</f>
+        <f t="shared" ref="F32:F43" si="16">AVERAGE(C32:E32)</f>
         <v>37.5</v>
       </c>
       <c r="G32" s="2">
-        <f t="shared" ref="G32:G43" si="5">STDEV(C32:E32)</f>
+        <f t="shared" ref="G32:G43" si="17">STDEV(C32:E32)</f>
         <v>3.1227071588607189</v>
       </c>
       <c r="H32">
         <f>AVERAGE(F31:F33)</f>
         <v>38.952500000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L32">
+        <f t="shared" ref="L32:L43" si="18">F32-F46</f>
+        <v>-1.5700000000000003</v>
+      </c>
+      <c r="N32">
+        <f>F32-38.24</f>
+        <v>-0.74000000000000199</v>
+      </c>
+      <c r="O32">
+        <f>F34-33.13222</f>
+        <v>0.15111333333333477</v>
+      </c>
+      <c r="P32">
+        <f>F38-30.30167</f>
+        <v>7.1483299999999943</v>
+      </c>
+      <c r="Q32">
+        <f>F41-29.18056</f>
+        <v>3.0094399999999979</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>322</v>
       </c>
@@ -7624,15 +8907,35 @@
         <v>40.909999999999997</v>
       </c>
       <c r="F33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>40.405000000000001</v>
       </c>
       <c r="G33" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0.71417784899841164</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <f t="shared" si="18"/>
+        <v>2.0700000000000003</v>
+      </c>
+      <c r="N33">
+        <f t="shared" ref="N33:N34" si="19">F33-38.24</f>
+        <v>2.1649999999999991</v>
+      </c>
+      <c r="O33">
+        <f>F35-33.13222</f>
+        <v>-9.1388866666666608</v>
+      </c>
+      <c r="P33">
+        <f t="shared" ref="P33:P34" si="20">F39-30.30167</f>
+        <v>-4.5283366666666716</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" ref="Q33:Q34" si="21">F42-29.18056</f>
+        <v>-5.1138933333333334</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>322</v>
       </c>
@@ -7649,19 +8952,31 @@
         <v>31.78</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>33.283333333333331</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>3.8705339855546192</v>
       </c>
       <c r="J34">
         <f>-((H32-H35)-(H46-H49))</f>
         <v>-5.2063888888888883</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <f t="shared" si="18"/>
+        <v>-1.2133333333333383</v>
+      </c>
+      <c r="P34">
+        <f>F40-30.30167</f>
+        <v>-6.6016700000000021</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="21"/>
+        <v>-5.1605600000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>322</v>
       </c>
@@ -7678,11 +8993,11 @@
         <v>22.36</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>23.993333333333336</v>
       </c>
       <c r="G35" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>4.4697240779865934</v>
       </c>
       <c r="H35">
@@ -7693,8 +9008,12 @@
         <f>_xlfn.T.TEST(C31:E33,C34:E35,2,3)</f>
         <v>9.6947942309664678E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L35">
+        <f t="shared" si="18"/>
+        <v>-1.2816666666666627</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>322</v>
       </c>
@@ -7702,22 +9021,38 @@
         <v>326</v>
       </c>
       <c r="F36" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G36" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N36">
+        <f>-(N32-O32)</f>
+        <v>0.89111333333333675</v>
+      </c>
+      <c r="P36">
+        <f t="shared" ref="O36:P36" si="22">-(P32-Q32)</f>
+        <v>-4.1388899999999964</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>328</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N37">
+        <f>-(N33-O33)</f>
+        <v>-11.30388666666666</v>
+      </c>
+      <c r="P37">
+        <f t="shared" ref="O37:P37" si="23">-(P33-Q33)</f>
+        <v>-0.58555666666666184</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>322</v>
       </c>
@@ -7734,15 +9069,28 @@
         <v>37.75</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>37.449999999999996</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>3.0311548954152769</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L38">
+        <f t="shared" si="18"/>
+        <v>-0.39999999999999858</v>
+      </c>
+      <c r="N38" s="3">
+        <f>AVERAGE(N36:N37)</f>
+        <v>-5.2063866666666616</v>
+      </c>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3">
+        <f>AVERAGE(P36:P37)</f>
+        <v>-2.3622233333333291</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>322</v>
       </c>
@@ -7759,19 +9107,32 @@
         <v>21.79</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>25.77333333333333</v>
       </c>
       <c r="G39" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>3.8304612428966864</v>
       </c>
       <c r="H39">
-        <f t="shared" ref="H39" si="6">AVERAGE(F38:F40)</f>
+        <f t="shared" ref="H39" si="24">AVERAGE(F38:F40)</f>
         <v>28.974444444444444</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L39">
+        <f t="shared" si="18"/>
+        <v>0.73333333333332718</v>
+      </c>
+      <c r="N39" s="8">
+        <f>STDEV(N36:N37)/SQRT(2)</f>
+        <v>6.0974999999999993</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8">
+        <f t="shared" ref="O39:P39" si="25">STDEV(P36:P37)/SQRT(2)</f>
+        <v>1.7766666666666675</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>322</v>
       </c>
@@ -7782,15 +9143,19 @@
         <v>23.7</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>23.7</v>
       </c>
       <c r="G40" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L40">
+        <f t="shared" si="18"/>
+        <v>-4.3150000000000013</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>322</v>
       </c>
@@ -7801,19 +9166,23 @@
         <v>32.19</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>32.19</v>
       </c>
       <c r="G41" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J41">
         <f>-((H39-H42)-(H53-H56))</f>
         <v>-1.094444444444445</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L41">
+        <f t="shared" si="18"/>
+        <v>-0.56000000000000227</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>322</v>
       </c>
@@ -7830,23 +9199,27 @@
         <v>17.510000000000002</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>24.066666666666666</v>
       </c>
       <c r="G42" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>7.2111325971260065</v>
       </c>
       <c r="H42">
-        <f t="shared" ref="H42" si="7">AVERAGE(F41:F43)</f>
+        <f t="shared" ref="H42" si="26">AVERAGE(F41:F43)</f>
         <v>26.758888888888887</v>
       </c>
       <c r="J42">
         <f>_xlfn.T.TEST(C38:E40,C41:E43,2,3)</f>
         <v>0.24707346935597305</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L42">
+        <f t="shared" si="18"/>
+        <v>2.6700000000000017</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>322</v>
       </c>
@@ -7857,22 +9230,26 @@
         <v>24.02</v>
       </c>
       <c r="F43" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>24.02</v>
       </c>
       <c r="G43" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L43">
+        <f t="shared" si="18"/>
+        <v>-9.3749999999999964</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>327</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>323</v>
       </c>
@@ -7886,15 +9263,15 @@
         <v>37.909999999999997</v>
       </c>
       <c r="F45" s="1">
-        <f t="shared" ref="F45:F57" si="8">AVERAGE(C45:E45)</f>
+        <f t="shared" ref="F45:F57" si="27">AVERAGE(C45:E45)</f>
         <v>37.314999999999998</v>
       </c>
       <c r="G45" s="2">
-        <f t="shared" ref="G45:G57" si="9">STDEV(C45:E45)</f>
+        <f t="shared" ref="G45:G57" si="28">STDEV(C45:E45)</f>
         <v>0.84145706961198996</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>323</v>
       </c>
@@ -7908,19 +9285,19 @@
         <v>39.49</v>
       </c>
       <c r="F46" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="27"/>
         <v>39.07</v>
       </c>
       <c r="G46" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>0.59396969619670237</v>
       </c>
       <c r="H46">
-        <f t="shared" ref="H46" si="10">AVERAGE(F45:F47)</f>
+        <f t="shared" ref="H46" si="29">AVERAGE(F45:F47)</f>
         <v>38.24</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>323</v>
       </c>
@@ -7934,11 +9311,11 @@
         <v>35.92</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="27"/>
         <v>38.335000000000001</v>
       </c>
       <c r="G47" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>3.4153257531310235</v>
       </c>
       <c r="I47">
@@ -7946,7 +9323,7 @@
         <v>8.1323425212232264E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>323</v>
       </c>
@@ -7963,11 +9340,11 @@
         <v>33.840000000000003</v>
       </c>
       <c r="F48" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="27"/>
         <v>34.49666666666667</v>
       </c>
       <c r="G48" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>0.58020111455712509</v>
       </c>
     </row>
@@ -7985,15 +9362,15 @@
         <v>26.64</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="27"/>
         <v>25.274999999999999</v>
       </c>
       <c r="G49" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>1.9304015126392751</v>
       </c>
       <c r="H49">
-        <f t="shared" ref="H49" si="11">AVERAGE(F48:F50)</f>
+        <f t="shared" ref="H49" si="30">AVERAGE(F48:F50)</f>
         <v>33.132222222222225</v>
       </c>
     </row>
@@ -8011,11 +9388,11 @@
         <v>37.76</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="27"/>
         <v>39.625</v>
       </c>
       <c r="G50" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>2.637508293825825</v>
       </c>
     </row>
@@ -8043,11 +9420,11 @@
         <v>36.630000000000003</v>
       </c>
       <c r="F52" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="27"/>
         <v>37.849999999999994</v>
       </c>
       <c r="G52" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>1.0567402708329012</v>
       </c>
     </row>
@@ -8068,15 +9445,15 @@
         <v>22.72</v>
       </c>
       <c r="F53" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="27"/>
         <v>25.040000000000003</v>
       </c>
       <c r="G53" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>2.0884683382804732</v>
       </c>
       <c r="H53">
-        <f t="shared" ref="H53" si="12">AVERAGE(F52:F54)</f>
+        <f t="shared" ref="H53" si="31">AVERAGE(F52:F54)</f>
         <v>30.301666666666666</v>
       </c>
     </row>
@@ -8094,11 +9471,11 @@
         <v>32.49</v>
       </c>
       <c r="F54" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="27"/>
         <v>28.015000000000001</v>
       </c>
       <c r="G54" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>6.3286056916195985</v>
       </c>
       <c r="I54">
@@ -8120,11 +9497,11 @@
         <v>27.4</v>
       </c>
       <c r="F55" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="27"/>
         <v>32.75</v>
       </c>
       <c r="G55" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>7.5660425586960516</v>
       </c>
     </row>
@@ -8145,15 +9522,15 @@
         <v>17.579999999999998</v>
       </c>
       <c r="F56" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="27"/>
         <v>21.396666666666665</v>
       </c>
       <c r="G56" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>3.3351511709866104</v>
       </c>
       <c r="H56">
-        <f t="shared" ref="H56" si="13">AVERAGE(F55:F57)</f>
+        <f t="shared" ref="H56" si="32">AVERAGE(F55:F57)</f>
         <v>29.180555555555554</v>
       </c>
     </row>
@@ -8171,11 +9548,11 @@
         <v>32.83</v>
       </c>
       <c r="F57" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="27"/>
         <v>33.394999999999996</v>
       </c>
       <c r="G57" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>0.79903066274080048</v>
       </c>
     </row>
@@ -8195,4 +9572,2029 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D2" t="s">
+        <v>356</v>
+      </c>
+      <c r="E2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>7.0000000000000284E-2</v>
+      </c>
+      <c r="C3">
+        <v>-5.9422222222222238</v>
+      </c>
+      <c r="D3">
+        <v>3.5216633333333291</v>
+      </c>
+      <c r="E3">
+        <v>-7.7355599999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>-3.7833333333333314</v>
+      </c>
+      <c r="C4">
+        <v>-12.132222222222225</v>
+      </c>
+      <c r="D4">
+        <v>-4.4750033333333334</v>
+      </c>
+      <c r="E4">
+        <v>-14.28556</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>-0.80499999999999972</v>
+      </c>
+      <c r="C5">
+        <v>-6.4122222222222263</v>
+      </c>
+      <c r="D5">
+        <v>-9.6383366666666674</v>
+      </c>
+      <c r="E5">
+        <v>-3.6605600000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3">
+        <f>AVERAGE(B3:B5)</f>
+        <v>-1.5061111111111103</v>
+      </c>
+      <c r="C6" s="3">
+        <f>AVERAGE(C3:C5)</f>
+        <v>-8.1622222222222245</v>
+      </c>
+      <c r="D6" s="3">
+        <f>AVERAGE(D3:D5)</f>
+        <v>-3.5305588888888906</v>
+      </c>
+      <c r="E6" s="3">
+        <f>AVERAGE(E3:E5)</f>
+        <v>-8.5605600000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8">
+        <f>-(B6-C6)</f>
+        <v>-6.6561111111111142</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8">
+        <f>-(D6-E6)</f>
+        <v>-5.03000111111111</v>
+      </c>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>321</v>
+      </c>
+      <c r="B8">
+        <v>1.8900000000000006</v>
+      </c>
+      <c r="C8">
+        <v>-3.542199999999994</v>
+      </c>
+      <c r="D8">
+        <v>8.2183299999999946</v>
+      </c>
+      <c r="E8">
+        <v>-7.0005600000000037</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>-0.64000000000000057</v>
+      </c>
+      <c r="C9">
+        <v>-8.6288666666666636</v>
+      </c>
+      <c r="D9">
+        <v>-4.691670000000002</v>
+      </c>
+      <c r="E9">
+        <v>-5.9905599999999986</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>0.22999999999999687</v>
+      </c>
+      <c r="C10">
+        <v>7.2244666666666646</v>
+      </c>
+      <c r="D10">
+        <v>-6.8966700000000003</v>
+      </c>
+      <c r="E10">
+        <v>6.8244399999999956</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3">
+        <f>AVERAGE(B8:B10)</f>
+        <v>0.49333333333333229</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" ref="C11:E11" si="0">AVERAGE(C8:C10)</f>
+        <v>-1.6488666666666643</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>-1.1233366666666693</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
+        <v>-2.0555600000000021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8">
+        <f>-(B11-C11)</f>
+        <v>-2.1421999999999963</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8">
+        <f>-(D11-E11)</f>
+        <v>-0.93222333333333274</v>
+      </c>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>322</v>
+      </c>
+      <c r="B13">
+        <v>-0.74000000000000199</v>
+      </c>
+      <c r="C13">
+        <v>0.15111333333333477</v>
+      </c>
+      <c r="D13">
+        <v>7.1483299999999943</v>
+      </c>
+      <c r="E13">
+        <v>3.0094399999999979</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>2.1649999999999991</v>
+      </c>
+      <c r="C14">
+        <v>-9.1388866666666608</v>
+      </c>
+      <c r="D14">
+        <v>-4.5283366666666716</v>
+      </c>
+      <c r="E14">
+        <v>-5.1138933333333334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>-6.6016700000000021</v>
+      </c>
+      <c r="E15">
+        <v>-5.1605600000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>-11.490000000000002</v>
+      </c>
+      <c r="D16">
+        <v>-3.3000000000000007</v>
+      </c>
+      <c r="E16">
+        <v>-10.298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>-0.96999999999999886</v>
+      </c>
+      <c r="C17">
+        <v>-1.4674999999999976</v>
+      </c>
+      <c r="D17">
+        <v>7.6099999999999994</v>
+      </c>
+      <c r="E17">
+        <v>-11.138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>-3</v>
+      </c>
+      <c r="D18">
+        <v>3.2699999999999996</v>
+      </c>
+      <c r="E18">
+        <v>13.822000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>1.9299999999999997</v>
+      </c>
+      <c r="C19">
+        <v>-13.977499999999999</v>
+      </c>
+      <c r="D19">
+        <v>5.0000000000000711E-2</v>
+      </c>
+      <c r="E19">
+        <v>-2.0380000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>-9.7500000000000142E-2</v>
+      </c>
+      <c r="D20">
+        <v>-8.1699999999999982</v>
+      </c>
+      <c r="E20">
+        <v>-11.498000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>-2.6433</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>-11.07</v>
+      </c>
+      <c r="D22">
+        <v>-1.2324999999999982</v>
+      </c>
+      <c r="E22">
+        <v>5.3167000000000009</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>-1.8399999999999999</v>
+      </c>
+      <c r="C23">
+        <v>0.35500000000000043</v>
+      </c>
+      <c r="D23">
+        <v>2.3375000000000021</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>2.9800000000000004</v>
+      </c>
+      <c r="C24">
+        <v>-9.0949999999999989</v>
+      </c>
+      <c r="D24">
+        <v>-5.9124999999999996</v>
+      </c>
+      <c r="E24">
+        <v>-10.023299999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>-0.48000000000000043</v>
+      </c>
+      <c r="C25">
+        <v>-10.074999999999999</v>
+      </c>
+      <c r="D25">
+        <v>-8.9124999999999996</v>
+      </c>
+      <c r="E25">
+        <v>-6.1032999999999991</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="3">
+        <f>AVERAGE(B13:B25)</f>
+        <v>-2.2515000000000005</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" ref="C26:D26" si="1">AVERAGE(C13:C25)</f>
+        <v>-5.4181591666666655</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.5201397222222228</v>
+      </c>
+      <c r="E26" s="3">
+        <f>AVERAGE(E13:E25)</f>
+        <v>-3.4890177777777773</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="8">
+        <f>-(B26-C26)</f>
+        <v>-3.166659166666665</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8">
+        <f>-(D26-E26)</f>
+        <v>-1.9688780555555545</v>
+      </c>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>348</v>
+      </c>
+      <c r="D29">
+        <v>-1.1600000000000001</v>
+      </c>
+      <c r="E29">
+        <v>-13.498000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>1.2100000000000009</v>
+      </c>
+      <c r="C30">
+        <v>-4.8974999999999973</v>
+      </c>
+      <c r="D30">
+        <v>-4.4399999999999977</v>
+      </c>
+      <c r="E30">
+        <v>-24.018000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>-0.94000000000000128</v>
+      </c>
+      <c r="C31">
+        <v>-18.087499999999999</v>
+      </c>
+      <c r="D31">
+        <v>1.4100000000000001</v>
+      </c>
+      <c r="E31">
+        <v>-24.018000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>0.67999999999999972</v>
+      </c>
+      <c r="D32">
+        <v>-5.120000000000001</v>
+      </c>
+      <c r="E32">
+        <v>4.7119999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>0.32250000000000156</v>
+      </c>
+      <c r="D33">
+        <v>-12.76</v>
+      </c>
+      <c r="E33">
+        <v>-7.4380000000000024</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="3">
+        <f>AVERAGE(B29:B33)</f>
+        <v>0.31666666666666643</v>
+      </c>
+      <c r="C34" s="3">
+        <f t="shared" ref="C34:E34" si="2">AVERAGE(C29:C33)</f>
+        <v>-7.5541666666666645</v>
+      </c>
+      <c r="D34" s="3">
+        <f t="shared" si="2"/>
+        <v>-4.4139999999999997</v>
+      </c>
+      <c r="E34" s="3">
+        <f t="shared" si="2"/>
+        <v>-12.852</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="8">
+        <f>-(B34-C34)</f>
+        <v>-7.8708333333333309</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8">
+        <f>-(D34-E34)</f>
+        <v>-8.4380000000000006</v>
+      </c>
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>349</v>
+      </c>
+      <c r="B36">
+        <v>-3.3599999999999994</v>
+      </c>
+      <c r="C36">
+        <v>2.3825000000000003</v>
+      </c>
+      <c r="D36">
+        <v>-1.379999999999999</v>
+      </c>
+      <c r="E36">
+        <v>-11.468</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>-6.9000000000000021</v>
+      </c>
+      <c r="C37">
+        <v>-8.7375000000000007</v>
+      </c>
+      <c r="D37">
+        <v>-0.57000000000000028</v>
+      </c>
+      <c r="E37">
+        <v>-7.7780000000000022</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>-5.8100000000000023</v>
+      </c>
+      <c r="C38">
+        <v>-16.9375</v>
+      </c>
+      <c r="D38">
+        <v>6.990000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>1.0499999999999972</v>
+      </c>
+      <c r="C39">
+        <v>-19.927499999999998</v>
+      </c>
+      <c r="D39">
+        <v>-3.870000000000001</v>
+      </c>
+      <c r="E39">
+        <v>-8.4480000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>2.5</v>
+      </c>
+      <c r="D40">
+        <v>-6.0599999999999987</v>
+      </c>
+      <c r="E40">
+        <v>-2.0680000000000014</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="3">
+        <f>AVERAGE(B36:B40)</f>
+        <v>-2.5040000000000013</v>
+      </c>
+      <c r="C41" s="3">
+        <f t="shared" ref="C41:E41" si="3">AVERAGE(C36:C40)</f>
+        <v>-10.805</v>
+      </c>
+      <c r="D41" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.97799999999999943</v>
+      </c>
+      <c r="E41" s="3">
+        <f t="shared" si="3"/>
+        <v>-7.440500000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="8">
+        <f>-(B41-C41)</f>
+        <v>-8.3009999999999984</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8">
+        <f>-(D41-E41)</f>
+        <v>-6.4625000000000012</v>
+      </c>
+      <c r="E42" s="8"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="9">
+        <f>STDEV(B36:B40)</f>
+        <v>4.1430097755134492</v>
+      </c>
+      <c r="C43" s="9">
+        <f t="shared" ref="C43:E43" si="4">STDEV(C36:C40)</f>
+        <v>9.9835243443051382</v>
+      </c>
+      <c r="D43" s="9">
+        <f t="shared" si="4"/>
+        <v>4.9499363632273097</v>
+      </c>
+      <c r="E43" s="9">
+        <f t="shared" si="4"/>
+        <v>3.9248556236716112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>574</v>
+      </c>
+      <c r="B44">
+        <v>-11.284999999999997</v>
+      </c>
+      <c r="C44" s="4">
+        <v>18.855000000000004</v>
+      </c>
+      <c r="D44">
+        <v>0.7240000000000002</v>
+      </c>
+      <c r="E44">
+        <v>-2.5400000000000027</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>-10.834999999999997</v>
+      </c>
+      <c r="C45" s="4">
+        <v>15.164999999999999</v>
+      </c>
+      <c r="D45">
+        <v>-1.1759999999999984</v>
+      </c>
+      <c r="E45">
+        <v>1.2299999999999969</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>-2.9549999999999983</v>
+      </c>
+      <c r="C46" s="4">
+        <v>-7.9249999999999972</v>
+      </c>
+      <c r="E46">
+        <v>3.509999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>4.115000000000002</v>
+      </c>
+      <c r="C47" s="4">
+        <v>-6.7149999999999999</v>
+      </c>
+      <c r="D47">
+        <v>1.7940000000000005</v>
+      </c>
+      <c r="E47">
+        <v>2.1499999999999986</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>-1.0349999999999966</v>
+      </c>
+      <c r="C48" s="4">
+        <v>-3.9869999999999983</v>
+      </c>
+      <c r="D48">
+        <v>-0.1460000000000008</v>
+      </c>
+      <c r="E48">
+        <v>-0.41000000000000014</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="3">
+        <f>AVERAGE(B44:B48)</f>
+        <v>-4.3989999999999974</v>
+      </c>
+      <c r="C49" s="3">
+        <f t="shared" ref="C49:E49" si="5">AVERAGE(C44:C48)</f>
+        <v>3.0786000000000016</v>
+      </c>
+      <c r="D49" s="3">
+        <f t="shared" si="5"/>
+        <v>0.29900000000000038</v>
+      </c>
+      <c r="E49" s="3">
+        <f t="shared" si="5"/>
+        <v>0.78799999999999815</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="8">
+        <f>-(B49-C49)</f>
+        <v>7.4775999999999989</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8">
+        <f>-(D49-E49)</f>
+        <v>0.48899999999999777</v>
+      </c>
+      <c r="E50" s="8"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <f>STDEV(B44:B48)</f>
+        <v>6.6092533617648517</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ref="C51:E51" si="6">STDEV(C44:C48)</f>
+        <v>12.86363458747177</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="6"/>
+        <v>1.2635004287032643</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="6"/>
+        <v>2.3436339304592773</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V62"/>
+  <sheetViews>
+    <sheetView topLeftCell="K22" workbookViewId="0">
+      <selection activeCell="T49" sqref="T49:U50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H1" t="s">
+        <v>346</v>
+      </c>
+      <c r="I1" t="s">
+        <v>347</v>
+      </c>
+      <c r="J1" t="s">
+        <v>348</v>
+      </c>
+      <c r="K1" t="s">
+        <v>346</v>
+      </c>
+      <c r="L1" t="s">
+        <v>347</v>
+      </c>
+      <c r="M1" t="s">
+        <v>349</v>
+      </c>
+      <c r="N1" t="s">
+        <v>346</v>
+      </c>
+      <c r="O1" t="s">
+        <v>347</v>
+      </c>
+      <c r="P1">
+        <v>574</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>346</v>
+      </c>
+      <c r="R1" t="s">
+        <v>347</v>
+      </c>
+      <c r="S1">
+        <v>363</v>
+      </c>
+      <c r="T1" t="s">
+        <v>346</v>
+      </c>
+      <c r="U1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B2">
+        <v>0.99500000000000455</v>
+      </c>
+      <c r="C2">
+        <v>-4.0266666666666637</v>
+      </c>
+      <c r="E2">
+        <v>2.8150000000000048</v>
+      </c>
+      <c r="F2">
+        <v>0.67000000000000171</v>
+      </c>
+      <c r="H2">
+        <v>-1.5700000000000003</v>
+      </c>
+      <c r="I2">
+        <v>-0.39999999999999858</v>
+      </c>
+      <c r="K2">
+        <v>3.1300000000000026</v>
+      </c>
+      <c r="L2">
+        <v>1.1799999999999997</v>
+      </c>
+      <c r="N2">
+        <v>-4.43</v>
+      </c>
+      <c r="O2">
+        <v>0.96000000000000085</v>
+      </c>
+      <c r="Q2">
+        <v>-14.979999999999997</v>
+      </c>
+      <c r="R2">
+        <v>-0.93999999999999773</v>
+      </c>
+      <c r="T2">
+        <v>-0.86000000000000121</v>
+      </c>
+      <c r="U2">
+        <v>6.6999999999999993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3">
+        <v>-4.6133333333333297</v>
+      </c>
+      <c r="C3">
+        <v>0.78666666666666529</v>
+      </c>
+      <c r="E3">
+        <v>-1.4699999999999989</v>
+      </c>
+      <c r="F3">
+        <v>0.56999999999999673</v>
+      </c>
+      <c r="H3">
+        <v>2.0700000000000003</v>
+      </c>
+      <c r="I3">
+        <v>0.73333333333332718</v>
+      </c>
+      <c r="K3">
+        <v>3.2799999999999976</v>
+      </c>
+      <c r="L3">
+        <v>-3.2099999999999973</v>
+      </c>
+      <c r="N3">
+        <v>-4.9800000000000004</v>
+      </c>
+      <c r="O3">
+        <v>0.66000000000000014</v>
+      </c>
+      <c r="Q3">
+        <v>2.6600000000000037</v>
+      </c>
+      <c r="R3">
+        <v>4.9400000000000013</v>
+      </c>
+      <c r="T3">
+        <v>0.21000000000000085</v>
+      </c>
+      <c r="U3">
+        <v>0.51999999999999957</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4">
+        <v>-0.89999999999999858</v>
+      </c>
+      <c r="C4">
+        <v>-7.3516666666666666</v>
+      </c>
+      <c r="E4">
+        <v>0.13499999999999801</v>
+      </c>
+      <c r="F4">
+        <v>-4.6099999999999994</v>
+      </c>
+      <c r="H4">
+        <v>-12.560000000000002</v>
+      </c>
+      <c r="I4">
+        <v>-4.3150000000000013</v>
+      </c>
+      <c r="K4">
+        <v>-1.2199999999999989</v>
+      </c>
+      <c r="L4">
+        <v>3.1900000000000013</v>
+      </c>
+      <c r="N4">
+        <v>-1.5900000000000034</v>
+      </c>
+      <c r="O4">
+        <v>8.7700000000000031</v>
+      </c>
+      <c r="R4">
+        <v>0.23000000000000398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>-2.6900000000000013</v>
+      </c>
+      <c r="C5">
+        <v>1.5700000000000003</v>
+      </c>
+      <c r="E5">
+        <v>-2.8299999999999983</v>
+      </c>
+      <c r="F5">
+        <v>0.13999999999999702</v>
+      </c>
+      <c r="H5">
+        <v>0.95000000000000284</v>
+      </c>
+      <c r="I5">
+        <v>-0.96000000000000085</v>
+      </c>
+      <c r="K5">
+        <v>-4.5500000000000007</v>
+      </c>
+      <c r="L5">
+        <v>0.37000000000000099</v>
+      </c>
+      <c r="N5">
+        <v>-0.85000000000000142</v>
+      </c>
+      <c r="O5">
+        <v>-11.41</v>
+      </c>
+      <c r="R5">
+        <v>-2.0400000000000027</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>-0.30000000000000071</v>
+      </c>
+      <c r="C6">
+        <v>-2.4800000000000004</v>
+      </c>
+      <c r="E6">
+        <v>-1.8900000000000006</v>
+      </c>
+      <c r="F6">
+        <v>-1.4399999999999995</v>
+      </c>
+      <c r="H6">
+        <v>1.2199999999999989</v>
+      </c>
+      <c r="I6">
+        <v>5.0500000000000007</v>
+      </c>
+      <c r="K6">
+        <v>-3.7300000000000004</v>
+      </c>
+      <c r="N6">
+        <v>-0.67000000000000171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>1.629999999999999</v>
+      </c>
+      <c r="C7">
+        <v>3.9800000000000004</v>
+      </c>
+      <c r="E7">
+        <v>-1.5800000000000018</v>
+      </c>
+      <c r="F7">
+        <v>-1.1099999999999994</v>
+      </c>
+      <c r="H7">
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="I7">
+        <v>-13.52</v>
+      </c>
+      <c r="K7">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>-0.89000000000000057</v>
+      </c>
+      <c r="C8">
+        <v>-0.33000000000000007</v>
+      </c>
+      <c r="E8">
+        <v>-0.26000000000000156</v>
+      </c>
+      <c r="F8">
+        <v>-1.0500000000000007</v>
+      </c>
+      <c r="H8">
+        <v>-13.16</v>
+      </c>
+      <c r="I8">
+        <v>-3.3499999999999979</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>-0.53999999999999915</v>
+      </c>
+      <c r="C9">
+        <v>1.3699999999999992</v>
+      </c>
+      <c r="E9">
+        <v>-2.3900000000000006</v>
+      </c>
+      <c r="F9">
+        <v>-1.370000000000001</v>
+      </c>
+      <c r="H9">
+        <v>1.6099999999999994</v>
+      </c>
+      <c r="I9">
+        <v>18.48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>1.67</v>
+      </c>
+      <c r="I10">
+        <v>-7.1300000000000008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>0.91000000000000014</v>
+      </c>
+      <c r="I11">
+        <v>-21.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>-0.24000000000000199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>2.7600000000000016</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>350</v>
+      </c>
+      <c r="B20">
+        <f>AVERAGE(B2:B19)</f>
+        <v>-0.91354166666666581</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ref="C20:U20" si="0">AVERAGE(C2:C19)</f>
+        <v>-0.8102083333333332</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>-0.93374999999999986</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>-1.0250000000000006</v>
+      </c>
+      <c r="H20">
+        <f>AVERAGE(H2:H19)</f>
+        <v>-1.8830000000000002</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>-2.0509722222222222</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>2.8849999999999998</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>0.38250000000000117</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>-2.5040000000000013</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="0"/>
+        <v>-0.25499999999999901</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="0"/>
+        <v>-6.1599999999999966</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="0"/>
+        <v>0.54750000000000121</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="0"/>
+        <v>-0.32500000000000018</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="0"/>
+        <v>3.6099999999999994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="B26" s="3">
+        <v>-7.3066666666666684</v>
+      </c>
+      <c r="C26" s="3">
+        <v>-11.305</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3">
+        <v>-4.9066666666666663</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-10.570000000000004</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3">
+        <v>-1.2133333333333383</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-0.56000000000000227</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3">
+        <v>-3.7199999999999989</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-7.0399999999999991</v>
+      </c>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3">
+        <v>-1.7399999999999984</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-5.009999999999998</v>
+      </c>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3">
+        <v>0.83999999999999631</v>
+      </c>
+      <c r="R26" s="3">
+        <v>6.57</v>
+      </c>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3">
+        <v>-2.0100000000000016</v>
+      </c>
+      <c r="U26" s="3">
+        <v>5.9399999999999995</v>
+      </c>
+      <c r="V26" s="3"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="4">
+        <v>-4.2749999999999986</v>
+      </c>
+      <c r="C27" s="4">
+        <v>-6.5016666666666652</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4">
+        <v>-0.77166666666666472</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1.7933333333333366</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4">
+        <v>-1.2816666666666627</v>
+      </c>
+      <c r="I27" s="4">
+        <v>2.6700000000000017</v>
+      </c>
+      <c r="K27">
+        <v>3.870000000000001</v>
+      </c>
+      <c r="L27">
+        <v>-1.7300000000000004</v>
+      </c>
+      <c r="N27">
+        <v>-7.5600000000000023</v>
+      </c>
+      <c r="O27">
+        <v>-6.4400000000000013</v>
+      </c>
+      <c r="Q27">
+        <v>3.0500000000000025</v>
+      </c>
+      <c r="R27">
+        <v>3.09</v>
+      </c>
+      <c r="T27">
+        <v>0.46999999999999886</v>
+      </c>
+      <c r="U27">
+        <v>-1.5800000000000018</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="4">
+        <v>-12.905000000000001</v>
+      </c>
+      <c r="C28" s="4">
+        <v>-7.8749999999999964</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4">
+        <v>0.73166666666666202</v>
+      </c>
+      <c r="F28" s="4">
+        <v>2.6099999999999994</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28">
+        <v>-0.28999999999999915</v>
+      </c>
+      <c r="I28" s="4">
+        <v>-9.3749999999999964</v>
+      </c>
+      <c r="K28">
+        <v>3.990000000000002</v>
+      </c>
+      <c r="L28">
+        <v>2.0299999999999976</v>
+      </c>
+      <c r="N28">
+        <v>-20.53</v>
+      </c>
+      <c r="O28">
+        <v>7.3999999999999986</v>
+      </c>
+      <c r="Q28">
+        <v>-3.1799999999999997</v>
+      </c>
+      <c r="R28">
+        <v>-2.9100000000000037</v>
+      </c>
+      <c r="T28">
+        <v>4.6199999999999992</v>
+      </c>
+      <c r="U28">
+        <v>6.66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>0.49000000000000199</v>
+      </c>
+      <c r="C29">
+        <v>-0.12999999999999901</v>
+      </c>
+      <c r="E29">
+        <v>-0.32000000000000028</v>
+      </c>
+      <c r="F29">
+        <v>-2.2999999999999989</v>
+      </c>
+      <c r="H29">
+        <v>-14.580000000000002</v>
+      </c>
+      <c r="I29">
+        <v>-3.8399999999999981</v>
+      </c>
+      <c r="K29">
+        <v>1.0600000000000023</v>
+      </c>
+      <c r="L29">
+        <v>3.870000000000001</v>
+      </c>
+      <c r="N29">
+        <v>8.4599999999999973</v>
+      </c>
+      <c r="Q29">
+        <v>-4.1720000000000006</v>
+      </c>
+      <c r="R29">
+        <v>-0.86999999999999744</v>
+      </c>
+      <c r="U29">
+        <v>7.0800000000000018</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>-27.27</v>
+      </c>
+      <c r="C30">
+        <v>0.96999999999999886</v>
+      </c>
+      <c r="E30">
+        <v>-24.799999999999997</v>
+      </c>
+      <c r="F30">
+        <v>-0.82000000000000028</v>
+      </c>
+      <c r="H30">
+        <v>3.4499999999999993</v>
+      </c>
+      <c r="I30">
+        <v>-9.7999999999999989</v>
+      </c>
+      <c r="L30">
+        <v>1.6500000000000021</v>
+      </c>
+      <c r="R30">
+        <v>-1.9400000000000013</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>1.33</v>
+      </c>
+      <c r="C31">
+        <v>-4.1199999999999992</v>
+      </c>
+      <c r="E31">
+        <v>-1.6499999999999986</v>
+      </c>
+      <c r="F31">
+        <v>-3.76</v>
+      </c>
+      <c r="H31">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1.2300000000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>2.17</v>
+      </c>
+      <c r="C32">
+        <v>-0.96999999999999886</v>
+      </c>
+      <c r="E32">
+        <v>1.7000000000000011</v>
+      </c>
+      <c r="F32">
+        <v>-3.4299999999999997</v>
+      </c>
+      <c r="H32">
+        <v>-14.769999999999996</v>
+      </c>
+      <c r="I32">
+        <v>-8.48</v>
+      </c>
+      <c r="L32">
+        <v>-2.16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>-7.7100000000000009</v>
+      </c>
+      <c r="I33">
+        <v>-2.0300000000000011</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>-7.3000000000000007</v>
+      </c>
+      <c r="I34">
+        <v>-1.5200000000000031</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <v>0.17999999999999972</v>
+      </c>
+      <c r="I35">
+        <v>-1.2599999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <v>-15.99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <v>8.4599999999999991</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <v>0.11999999999999744</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <v>2.9000000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <v>1.8200000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>350</v>
+      </c>
+      <c r="B44">
+        <f>AVERAGE(B26:B43)</f>
+        <v>-6.8238095238095235</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ref="C44:U44" si="1">AVERAGE(C26:C43)</f>
+        <v>-4.2759523809523801</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>-4.288095238095238</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>-2.3538095238095238</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="1"/>
+        <v>-3.4464999999999995</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="1"/>
+        <v>-2.2590000000000003</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="1"/>
+        <v>1.3000000000000016</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="1"/>
+        <v>-0.30714285714285694</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="1"/>
+        <v>-5.3425000000000011</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="1"/>
+        <v>-1.3500000000000003</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="1"/>
+        <v>-0.86550000000000038</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="1"/>
+        <v>0.78799999999999959</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="1"/>
+        <v>1.0266666666666655</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="1"/>
+        <v>4.5250000000000004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>351</v>
+      </c>
+      <c r="B48">
+        <f>-(B20-B44)</f>
+        <v>-5.9102678571428573</v>
+      </c>
+      <c r="C48">
+        <f>-(C20-C44)</f>
+        <v>-3.4657440476190469</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ref="E48:T48" si="2">-(E20-E44)</f>
+        <v>-3.3543452380952381</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="2"/>
+        <v>-1.3288095238095232</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="2"/>
+        <v>-1.5634999999999992</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="2"/>
+        <v>-0.20802777777777814</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="2"/>
+        <v>-1.5849999999999982</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="2"/>
+        <v>-0.68964285714285811</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="2"/>
+        <v>-2.8384999999999998</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="2"/>
+        <v>-1.0950000000000013</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="2"/>
+        <v>5.2944999999999958</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="2"/>
+        <v>0.24049999999999838</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="2"/>
+        <v>1.3516666666666657</v>
+      </c>
+      <c r="U48">
+        <f>-(U20-U44)</f>
+        <v>0.91500000000000092</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B49" s="3">
+        <f>-(B2-B26)</f>
+        <v>-8.301666666666673</v>
+      </c>
+      <c r="C49" s="3">
+        <f>-(C2-C26)</f>
+        <v>-7.278333333333336</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3">
+        <f t="shared" ref="E49:F49" si="3">-(E2-E26)</f>
+        <v>-7.7216666666666711</v>
+      </c>
+      <c r="F49" s="3">
+        <f t="shared" si="3"/>
+        <v>-11.240000000000006</v>
+      </c>
+      <c r="G49" s="3"/>
+      <c r="H49" s="4">
+        <f>-(H2-H26)</f>
+        <v>0.35666666666666202</v>
+      </c>
+      <c r="I49" s="4">
+        <f>-(I2-I26)</f>
+        <v>-0.16000000000000369</v>
+      </c>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3">
+        <f>-(K2-K26)</f>
+        <v>-6.8500000000000014</v>
+      </c>
+      <c r="L49" s="3">
+        <f>-(L2-L26)</f>
+        <v>-8.2199999999999989</v>
+      </c>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3">
+        <f>-(N2-N26)</f>
+        <v>2.6900000000000013</v>
+      </c>
+      <c r="O49" s="3">
+        <f>-(O2-O26)</f>
+        <v>-5.9699999999999989</v>
+      </c>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3">
+        <f t="shared" ref="Q49:R49" si="4">-(Q2-Q26)</f>
+        <v>15.819999999999993</v>
+      </c>
+      <c r="R49" s="3">
+        <f t="shared" si="4"/>
+        <v>7.509999999999998</v>
+      </c>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3">
+        <f>-(T2-T26)</f>
+        <v>-1.1500000000000004</v>
+      </c>
+      <c r="U49" s="3">
+        <f>-(U2-U26)</f>
+        <v>-0.75999999999999979</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B50" s="3">
+        <f t="shared" ref="B50:C55" si="5">-(B3-B27)</f>
+        <v>0.33833333333333115</v>
+      </c>
+      <c r="C50" s="3">
+        <f t="shared" si="5"/>
+        <v>-7.2883333333333304</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3">
+        <f t="shared" ref="E50:F50" si="6">-(E3-E27)</f>
+        <v>0.69833333333333414</v>
+      </c>
+      <c r="F50" s="3">
+        <f t="shared" si="6"/>
+        <v>1.2233333333333398</v>
+      </c>
+      <c r="H50" s="4">
+        <f t="shared" ref="H50:I60" si="7">-(H3-H27)</f>
+        <v>-3.351666666666663</v>
+      </c>
+      <c r="I50" s="4">
+        <f t="shared" si="7"/>
+        <v>1.9366666666666745</v>
+      </c>
+      <c r="K50" s="3">
+        <f t="shared" ref="K50:L52" si="8">-(K3-K27)</f>
+        <v>0.59000000000000341</v>
+      </c>
+      <c r="L50" s="3">
+        <f t="shared" si="8"/>
+        <v>1.4799999999999969</v>
+      </c>
+      <c r="N50" s="3">
+        <f t="shared" ref="N50:O52" si="9">-(N3-N27)</f>
+        <v>-2.5800000000000018</v>
+      </c>
+      <c r="O50" s="3">
+        <f t="shared" si="9"/>
+        <v>-7.1000000000000014</v>
+      </c>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3">
+        <f t="shared" ref="Q50:R50" si="10">-(Q3-Q27)</f>
+        <v>0.38999999999999879</v>
+      </c>
+      <c r="R50" s="3">
+        <f t="shared" si="10"/>
+        <v>-1.8500000000000014</v>
+      </c>
+      <c r="T50" s="3">
+        <f>-(T3-T27)</f>
+        <v>0.25999999999999801</v>
+      </c>
+      <c r="U50" s="3">
+        <f>-(U3-U27)</f>
+        <v>-2.1000000000000014</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B51" s="3">
+        <f t="shared" si="5"/>
+        <v>-12.005000000000003</v>
+      </c>
+      <c r="C51" s="3">
+        <f t="shared" si="5"/>
+        <v>-0.52333333333332988</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3">
+        <f t="shared" ref="E51:F51" si="11">-(E4-E28)</f>
+        <v>0.59666666666666401</v>
+      </c>
+      <c r="F51" s="3">
+        <f t="shared" si="11"/>
+        <v>7.2199999999999989</v>
+      </c>
+      <c r="H51" s="4">
+        <f t="shared" si="7"/>
+        <v>12.270000000000003</v>
+      </c>
+      <c r="I51" s="4">
+        <f t="shared" si="7"/>
+        <v>-5.0599999999999952</v>
+      </c>
+      <c r="K51" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2100000000000009</v>
+      </c>
+      <c r="L51" s="3">
+        <f t="shared" si="8"/>
+        <v>-1.1600000000000037</v>
+      </c>
+      <c r="N51" s="3">
+        <f t="shared" si="9"/>
+        <v>-18.939999999999998</v>
+      </c>
+      <c r="O51" s="3">
+        <f t="shared" si="9"/>
+        <v>-1.3700000000000045</v>
+      </c>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3">
+        <f t="shared" ref="Q51:R51" si="12">-(Q4-Q28)</f>
+        <v>-3.1799999999999997</v>
+      </c>
+      <c r="R51" s="3">
+        <f t="shared" si="12"/>
+        <v>-3.1400000000000077</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B52" s="3">
+        <f t="shared" si="5"/>
+        <v>3.1800000000000033</v>
+      </c>
+      <c r="C52" s="3">
+        <f t="shared" si="5"/>
+        <v>-1.6999999999999993</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3">
+        <f t="shared" ref="E52:F52" si="13">-(E5-E29)</f>
+        <v>2.509999999999998</v>
+      </c>
+      <c r="F52" s="3">
+        <f t="shared" si="13"/>
+        <v>-2.4399999999999959</v>
+      </c>
+      <c r="H52" s="4">
+        <f t="shared" si="7"/>
+        <v>-15.530000000000005</v>
+      </c>
+      <c r="I52" s="4">
+        <f t="shared" si="7"/>
+        <v>-2.8799999999999972</v>
+      </c>
+      <c r="K52" s="3">
+        <f t="shared" si="8"/>
+        <v>5.610000000000003</v>
+      </c>
+      <c r="L52" s="3">
+        <f t="shared" si="8"/>
+        <v>3.5</v>
+      </c>
+      <c r="N52" s="3">
+        <f t="shared" si="9"/>
+        <v>9.3099999999999987</v>
+      </c>
+      <c r="O52" s="3">
+        <f t="shared" si="9"/>
+        <v>11.41</v>
+      </c>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3">
+        <f t="shared" ref="Q52:R52" si="14">-(Q5-Q29)</f>
+        <v>-4.1720000000000006</v>
+      </c>
+      <c r="R52" s="3">
+        <f t="shared" si="14"/>
+        <v>1.1700000000000053</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B53" s="3">
+        <f t="shared" si="5"/>
+        <v>-26.97</v>
+      </c>
+      <c r="C53" s="3">
+        <f t="shared" si="5"/>
+        <v>3.4499999999999993</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3">
+        <f t="shared" ref="E53:F53" si="15">-(E6-E30)</f>
+        <v>-22.909999999999997</v>
+      </c>
+      <c r="F53" s="3">
+        <f t="shared" si="15"/>
+        <v>0.61999999999999922</v>
+      </c>
+      <c r="H53" s="4">
+        <f t="shared" si="7"/>
+        <v>2.2300000000000004</v>
+      </c>
+      <c r="I53" s="4">
+        <f t="shared" si="7"/>
+        <v>-14.85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B54" s="3">
+        <f t="shared" si="5"/>
+        <v>-0.29999999999999893</v>
+      </c>
+      <c r="C54" s="3">
+        <f t="shared" si="5"/>
+        <v>-8.1</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3">
+        <f t="shared" ref="E54:F54" si="16">-(E7-E31)</f>
+        <v>-6.9999999999996732E-2</v>
+      </c>
+      <c r="F54" s="3">
+        <f t="shared" si="16"/>
+        <v>-2.6500000000000004</v>
+      </c>
+      <c r="H54" s="4">
+        <f t="shared" si="7"/>
+        <v>9.02</v>
+      </c>
+      <c r="I54" s="4">
+        <f t="shared" si="7"/>
+        <v>16.52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B55" s="3">
+        <f t="shared" si="5"/>
+        <v>3.0600000000000005</v>
+      </c>
+      <c r="C55" s="3">
+        <f t="shared" si="5"/>
+        <v>-0.63999999999999879</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3">
+        <f t="shared" ref="E55:F55" si="17">-(E8-E32)</f>
+        <v>1.9600000000000026</v>
+      </c>
+      <c r="F55" s="3">
+        <f t="shared" si="17"/>
+        <v>-2.379999999999999</v>
+      </c>
+      <c r="H55" s="4">
+        <f t="shared" si="7"/>
+        <v>-1.6099999999999959</v>
+      </c>
+      <c r="I55" s="4">
+        <f t="shared" si="7"/>
+        <v>-5.1300000000000026</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H56" s="4">
+        <f t="shared" si="7"/>
+        <v>-9.32</v>
+      </c>
+      <c r="I56" s="4">
+        <f t="shared" si="7"/>
+        <v>-20.51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H57" s="4">
+        <f t="shared" si="7"/>
+        <v>-8.9700000000000006</v>
+      </c>
+      <c r="I57" s="4">
+        <f t="shared" si="7"/>
+        <v>5.6099999999999977</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H58" s="4">
+        <f t="shared" si="7"/>
+        <v>-0.73000000000000043</v>
+      </c>
+      <c r="I58" s="4">
+        <f t="shared" si="7"/>
+        <v>20.46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H59" s="4"/>
+      <c r="I59" s="4">
+        <f t="shared" si="7"/>
+        <v>-15.749999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H60" s="4"/>
+      <c r="I60" s="4">
+        <f t="shared" si="7"/>
+        <v>5.6999999999999975</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <f>AVERAGE(B49:B60)</f>
+        <v>-5.8569047619047625</v>
+      </c>
+      <c r="C61">
+        <f>AVERAGE(C49:C60)</f>
+        <v>-3.1542857142857139</v>
+      </c>
+      <c r="E61">
+        <f t="shared" ref="E61:U61" si="18">AVERAGE(E49:E60)</f>
+        <v>-3.5623809523809524</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="18"/>
+        <v>-1.3780952380952376</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="18"/>
+        <v>-1.5634999999999999</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="18"/>
+        <v>-1.1761111111111107</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="18"/>
+        <v>1.1400000000000015</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="18"/>
+        <v>-1.1000000000000014</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="18"/>
+        <v>-1.704</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="18"/>
+        <v>-0.75750000000000117</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="18"/>
+        <v>2.2144999999999984</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="18"/>
+        <v>0.92249999999999854</v>
+      </c>
+      <c r="T61">
+        <f t="shared" si="18"/>
+        <v>-0.44500000000000117</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="18"/>
+        <v>-1.4300000000000006</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <f>STDEV(B49:B60)/(SQRT(7))</f>
+        <v>4.1403235730427612</v>
+      </c>
+      <c r="C62">
+        <f>STDEV(C49:C60)/(SQRT(7))</f>
+        <v>1.672845366827189</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ref="E62:F62" si="19">STDEV(E49:E60)/(SQRT(7))</f>
+        <v>3.4731919253642918</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="19"/>
+        <v>2.1026820687127596</v>
+      </c>
+      <c r="H62">
+        <f>STDEV(H49:H60)/(SQRT(10))</f>
+        <v>2.6571307793172436</v>
+      </c>
+      <c r="I62">
+        <f>STDEV(I49:I60)/(SQRT(12))</f>
+        <v>3.580377423847124</v>
+      </c>
+      <c r="K62">
+        <f>STDEV(K49:K60)/2</f>
+        <v>2.8966705024907484</v>
+      </c>
+      <c r="L62">
+        <f>STDEV(L49:L60)/2</f>
+        <v>2.5579027867897293</v>
+      </c>
+      <c r="N62">
+        <f>STDEV(N49:N60)/2</f>
+        <v>5.278340885164579</v>
+      </c>
+      <c r="O62">
+        <f>STDEV(O49:O60)/2</f>
+        <v>4.2408791836127566</v>
+      </c>
+      <c r="Q62">
+        <f>STDEV(Q49:Q60)/2</f>
+        <v>4.6397417582591078</v>
+      </c>
+      <c r="R62">
+        <f>STDEV(R49:R60)/2</f>
+        <v>2.3742906835516169</v>
+      </c>
+      <c r="T62">
+        <f>STDEV(T49:T60)/SQRT(2)</f>
+        <v>0.70499999999999918</v>
+      </c>
+      <c r="U62">
+        <f>STDEV(U49:U60)/SQRT(2)</f>
+        <v>0.6700000000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A26:A28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Data/PCR/exp10_autothres.xlsx
+++ b/Data/PCR/exp10_autothres.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="8115" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="8115" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="exp10_autothres" sheetId="1" r:id="rId1"/>
@@ -1632,6 +1632,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1641,8 +1643,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1757,7 +1757,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2044,11 +2043,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="35742800"/>
-        <c:axId val="35743360"/>
+        <c:axId val="128397888"/>
+        <c:axId val="128398448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="35742800"/>
+        <c:axId val="128397888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2091,7 +2090,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35743360"/>
+        <c:crossAx val="128398448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2099,7 +2098,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="35743360"/>
+        <c:axId val="128398448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2150,7 +2149,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35742800"/>
+        <c:crossAx val="128397888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2164,7 +2163,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2246,7 +2244,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2334,11 +2331,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="250655680"/>
-        <c:axId val="250656240"/>
+        <c:axId val="128401248"/>
+        <c:axId val="128401808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="250655680"/>
+        <c:axId val="128401248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2380,7 +2377,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="250656240"/>
+        <c:crossAx val="128401808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2388,7 +2385,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="250656240"/>
+        <c:axId val="128401808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2439,7 +2436,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="250655680"/>
+        <c:crossAx val="128401248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2651,11 +2648,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="250659040"/>
-        <c:axId val="250659600"/>
+        <c:axId val="129317088"/>
+        <c:axId val="129317648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="250659040"/>
+        <c:axId val="129317088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2697,7 +2694,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="250659600"/>
+        <c:crossAx val="129317648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2705,7 +2702,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="250659600"/>
+        <c:axId val="129317648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2756,7 +2753,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="250659040"/>
+        <c:crossAx val="129317088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7827,7 +7824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="N32" sqref="N32:Q34"/>
     </sheetView>
   </sheetViews>
@@ -8631,13 +8628,13 @@
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="2"/>
-      <c r="N23" s="9">
+      <c r="N23" s="6">
         <f>AVERAGE(N20:N22)</f>
         <v>-2.1421999999999968</v>
       </c>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9">
-        <f t="shared" ref="O23:P23" si="14">AVERAGE(P20:P22)</f>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6">
+        <f t="shared" ref="P23" si="14">AVERAGE(P20:P22)</f>
         <v>-0.93222333333333296</v>
       </c>
     </row>
@@ -8671,7 +8668,7 @@
         <v>4.6275675555826812</v>
       </c>
       <c r="P24">
-        <f t="shared" ref="O24:P24" si="15">STDEV(P20:P22)/SQRT(3)</f>
+        <f t="shared" ref="P24" si="15">STDEV(P20:P22)/SQRT(3)</f>
         <v>8.35626976852976</v>
       </c>
     </row>
@@ -8919,7 +8916,7 @@
         <v>2.0700000000000003</v>
       </c>
       <c r="N33">
-        <f t="shared" ref="N33:N34" si="19">F33-38.24</f>
+        <f t="shared" ref="N33" si="19">F33-38.24</f>
         <v>2.1649999999999991</v>
       </c>
       <c r="O33">
@@ -8927,7 +8924,7 @@
         <v>-9.1388866666666608</v>
       </c>
       <c r="P33">
-        <f t="shared" ref="P33:P34" si="20">F39-30.30167</f>
+        <f t="shared" ref="P33" si="20">F39-30.30167</f>
         <v>-4.5283366666666716</v>
       </c>
       <c r="Q33">
@@ -9033,7 +9030,7 @@
         <v>0.89111333333333675</v>
       </c>
       <c r="P36">
-        <f t="shared" ref="O36:P36" si="22">-(P32-Q32)</f>
+        <f t="shared" ref="P36" si="22">-(P32-Q32)</f>
         <v>-4.1388899999999964</v>
       </c>
     </row>
@@ -9048,7 +9045,7 @@
         <v>-11.30388666666666</v>
       </c>
       <c r="P37">
-        <f t="shared" ref="O37:P37" si="23">-(P33-Q33)</f>
+        <f t="shared" ref="P37" si="23">-(P33-Q33)</f>
         <v>-0.58555666666666184</v>
       </c>
     </row>
@@ -9122,13 +9119,13 @@
         <f t="shared" si="18"/>
         <v>0.73333333333332718</v>
       </c>
-      <c r="N39" s="8">
+      <c r="N39" s="5">
         <f>STDEV(N36:N37)/SQRT(2)</f>
         <v>6.0974999999999993</v>
       </c>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8">
-        <f t="shared" ref="O39:P39" si="25">STDEV(P36:P37)/SQRT(2)</f>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5">
+        <f t="shared" ref="P39" si="25">STDEV(P36:P37)/SQRT(2)</f>
         <v>1.7766666666666675</v>
       </c>
     </row>
@@ -9578,8 +9575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9668,17 +9665,17 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5">
         <f>-(B6-C6)</f>
         <v>-6.6561111111111142</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5">
         <f>-(D6-E6)</f>
         <v>-5.03000111111111</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -9745,17 +9742,17 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5">
         <f>-(B11-C11)</f>
         <v>-2.1421999999999963</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5">
         <f>-(D11-E11)</f>
         <v>-0.93222333333333274</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -9931,16 +9928,16 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="8">
+      <c r="B27" s="5">
         <f>-(B26-C26)</f>
         <v>-3.166659166666665</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8">
+      <c r="C27" s="5"/>
+      <c r="D27" s="5">
         <f>-(D26-E26)</f>
         <v>-1.9688780555555545</v>
       </c>
-      <c r="E27" s="8"/>
+      <c r="E27" s="5"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -10022,16 +10019,16 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="8">
+      <c r="B35" s="5">
         <f>-(B34-C34)</f>
         <v>-7.8708333333333309</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8">
+      <c r="C35" s="5"/>
+      <c r="D35" s="5">
         <f>-(D34-E34)</f>
         <v>-8.4380000000000006</v>
       </c>
-      <c r="E35" s="8"/>
+      <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -10119,31 +10116,31 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="8">
+      <c r="B42" s="5">
         <f>-(B41-C41)</f>
         <v>-8.3009999999999984</v>
       </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8">
+      <c r="C42" s="5"/>
+      <c r="D42" s="5">
         <f>-(D41-E41)</f>
         <v>-6.4625000000000012</v>
       </c>
-      <c r="E42" s="8"/>
+      <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="9">
+      <c r="B43" s="6">
         <f>STDEV(B36:B40)</f>
         <v>4.1430097755134492</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="6">
         <f t="shared" ref="C43:E43" si="4">STDEV(C36:C40)</f>
         <v>9.9835243443051382</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="6">
         <f t="shared" si="4"/>
         <v>4.9499363632273097</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="6">
         <f t="shared" si="4"/>
         <v>3.9248556236716112</v>
       </c>
@@ -10237,16 +10234,16 @@
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="8">
+      <c r="B50" s="5">
         <f>-(B49-C49)</f>
         <v>7.4775999999999989</v>
       </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8">
+      <c r="C50" s="5"/>
+      <c r="D50" s="5">
         <f>-(D49-E49)</f>
         <v>0.48899999999999777</v>
       </c>
-      <c r="E50" s="8"/>
+      <c r="E50" s="5"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51">
@@ -10275,7 +10272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V62"/>
   <sheetViews>
-    <sheetView topLeftCell="K22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K22" workbookViewId="0">
       <selection activeCell="T49" sqref="T49:U50"/>
     </sheetView>
   </sheetViews>
@@ -10347,7 +10344,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>332</v>
       </c>
       <c r="B2">
@@ -10394,7 +10391,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="A3" s="7"/>
       <c r="B3">
         <v>-4.6133333333333297</v>
       </c>
@@ -10439,7 +10436,7 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="7"/>
       <c r="B4">
         <v>-0.89999999999999858</v>
       </c>
@@ -10686,7 +10683,7 @@
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="8" t="s">
         <v>345</v>
       </c>
       <c r="B26" s="3">
@@ -10740,7 +10737,7 @@
       <c r="V26" s="3"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
+      <c r="A27" s="9"/>
       <c r="B27" s="4">
         <v>-4.2749999999999986</v>
       </c>
@@ -10787,7 +10784,7 @@
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
+      <c r="A28" s="9"/>
       <c r="B28" s="4">
         <v>-12.905000000000001</v>
       </c>

--- a/Data/PCR/exp10_autothres.xlsx
+++ b/Data/PCR/exp10_autothres.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="8115" activeTab="3"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28770" windowHeight="8115" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="exp10_autothres" sheetId="1" r:id="rId1"/>
@@ -1757,6 +1757,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2043,11 +2044,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="128397888"/>
-        <c:axId val="128398448"/>
+        <c:axId val="246233472"/>
+        <c:axId val="246230672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="128397888"/>
+        <c:axId val="246233472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2090,7 +2091,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128398448"/>
+        <c:crossAx val="246230672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2098,7 +2099,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128398448"/>
+        <c:axId val="246230672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2149,7 +2150,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128397888"/>
+        <c:crossAx val="246233472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2163,6 +2164,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2244,6 +2246,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2331,11 +2334,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="128401248"/>
-        <c:axId val="128401808"/>
+        <c:axId val="246232912"/>
+        <c:axId val="246228432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="128401248"/>
+        <c:axId val="246232912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2377,7 +2380,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128401808"/>
+        <c:crossAx val="246228432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2385,7 +2388,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128401808"/>
+        <c:axId val="246228432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2436,7 +2439,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128401248"/>
+        <c:crossAx val="246232912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2648,11 +2651,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="129317088"/>
-        <c:axId val="129317648"/>
+        <c:axId val="246226192"/>
+        <c:axId val="237054640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="129317088"/>
+        <c:axId val="246226192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2694,7 +2697,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="129317648"/>
+        <c:crossAx val="237054640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2702,7 +2705,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129317648"/>
+        <c:axId val="237054640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2753,7 +2756,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="129317088"/>
+        <c:crossAx val="246226192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7824,8 +7827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32:Q34"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10272,7 +10275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K22" workbookViewId="0">
+    <sheetView topLeftCell="K22" workbookViewId="0">
       <selection activeCell="T49" sqref="T49:U50"/>
     </sheetView>
   </sheetViews>
